--- a/01-lab/summary.xlsx
+++ b/01-lab/summary.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="bisection_method" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="summary" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="bisection-method" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="golden-ratio-method" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="newtons-method" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,9 +23,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="31">
   <si>
     <t xml:space="preserve">Dalijimo pusiau metodas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auksinio pjūvio metodas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niutono metodas</t>
   </si>
   <si>
     <r>
@@ -31,6 +40,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x</t>
     </r>
@@ -41,6 +51,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -52,6 +63,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x</t>
     </r>
@@ -62,6 +74,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">m</t>
     </r>
@@ -73,6 +86,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">x</t>
     </r>
@@ -83,60 +97,85 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Iteracijos nr. 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iteracijos nr. 17</t>
+    <t xml:space="preserve">Iteracija nr. 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iteracija nr. 24</t>
   </si>
 </sst>
 </file>
@@ -148,11 +187,12 @@
     <numFmt numFmtId="165" formatCode="[$-427]General"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -174,11 +214,19 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -186,6 +234,7 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -197,14 +246,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF383D3C"/>
-        <bgColor rgb="FF333300"/>
+        <fgColor rgb="FF355269"/>
+        <bgColor rgb="FF3465A4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF355269"/>
-        <bgColor rgb="FF383D3C"/>
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF355269"/>
       </patternFill>
     </fill>
   </fills>
@@ -249,25 +298,53 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -327,7 +404,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -336,7 +413,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF355269"/>
-      <rgbColor rgb="FF383D3C"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -453,279 +530,593 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="14.41"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="n">
         <v>2.5</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="9" t="n">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="E3" s="10" t="n">
+        <v>3.81966011250105</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>6.18033988749895</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="n">
         <v>1.25</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="9" t="n">
         <v>2.5</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="9" t="n">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="E4" s="10" t="n">
+        <v>2.3606797749979</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>3.81966011250105</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="n">
         <v>0.625</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="9" t="n">
         <v>1.25</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="9" t="n">
         <v>1.875</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="E5" s="10" t="n">
+        <v>1.45898033750315</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>2.3606797749979</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="n">
         <v>0.9375</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="9" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="9" t="n">
         <v>1.5625</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="n">
+      <c r="E6" s="10" t="n">
+        <v>0.901699437494742</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>1.45898033750315</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="n">
         <v>0.78125</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="9" t="n">
         <v>0.9375</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="9" t="n">
         <v>1.09375</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="n">
+      <c r="E7" s="10" t="n">
+        <v>0.557280900008412</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0.901699437494742</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="n">
         <v>0.859375</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="9" t="n">
         <v>0.9375</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="9" t="n">
         <v>1.015625</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="n">
+      <c r="E8" s="10" t="n">
+        <v>0.901699437494742</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>1.11456180001682</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="n">
         <v>0.9765625</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="9" t="n">
         <v>1.015625</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="9" t="n">
         <v>1.0546875</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="n">
+      <c r="E9" s="10" t="n">
+        <v>0.770143262530494</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>0.901699437494742</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="n">
         <v>0.99609375</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="9" t="n">
         <v>1.015625</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="9" t="n">
         <v>1.03515625</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="n">
+      <c r="E10" s="10" t="n">
+        <v>0.901699437494742</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0.983005625052576</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="n">
         <v>0.986328125</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="9" t="n">
         <v>0.99609375</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="9" t="n">
         <v>1.005859375</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="n">
+      <c r="E11" s="10" t="n">
+        <v>0.983005625052576</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>1.03325561245899</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="n">
         <v>0.9912109375</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="9" t="n">
         <v>0.99609375</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="9" t="n">
         <v>1.0009765625</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4" t="n">
+      <c r="E12" s="10" t="n">
+        <v>0.951949424901157</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>0.983005625052576</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="n">
         <v>0.99853515625</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="9" t="n">
         <v>1.0009765625</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="9" t="n">
         <v>1.00341796875</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="n">
+      <c r="E13" s="10" t="n">
+        <v>0.983005625052576</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>1.00219941230757</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="n">
         <v>0.999755859375</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="9" t="n">
         <v>1.0009765625</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="9" t="n">
         <v>1.002197265625</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4" t="n">
+      <c r="E14" s="10" t="n">
+        <v>1.00219941230757</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>1.01406182520399</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9" t="n">
         <v>0.9991455078125</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="9" t="n">
         <v>0.999755859375</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="9" t="n">
         <v>1.0003662109375</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="n">
+      <c r="E15" s="10" t="n">
+        <v>0.994868037948998</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>1.00219941230757</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9" t="n">
         <v>0.99945068359375</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="9" t="n">
         <v>0.999755859375</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="9" t="n">
         <v>1.00006103515625</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="n">
+      <c r="E16" s="10" t="n">
+        <v>1.00219941230757</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>1.00673045084542</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9" t="n">
         <v>0.999908447265625</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="9" t="n">
         <v>1.00006103515625</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="9" t="n">
         <v>1.00021362304688</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="n">
+      <c r="E17" s="10" t="n">
+        <v>0.999399076486846</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>1.00219941230757</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="n">
         <v>0.999984741210938</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="9" t="n">
         <v>1.00006103515625</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="9" t="n">
         <v>1.00013732910156</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4" t="n">
+      <c r="E18" s="10" t="n">
+        <v>0.997668373769724</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>0.999399076486846</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9" t="n">
         <v>0.999946594238281</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="9" t="n">
         <v>0.999984741210938</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="9" t="n">
         <v>1.00002288818359</v>
       </c>
+      <c r="E19" s="10" t="n">
+        <v>0.999399076486846</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>1.00046870959045</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>1.00046870959045</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>1.00112977920397</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>1.00006014610037</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>1.00046870959045</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>0.999807639976931</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>1.00006014610037</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>1.00006014610037</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>1.00021620346702</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>0.999963697343581</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>1.00006014610037</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>0.999904088733715</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>0.999963697343581</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>0.999963697343581</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>1.0000005374905</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -735,4 +1126,826 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="14.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>1.015625</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>1.015625</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>1.0546875</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>0.99609375</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1.015625</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>1.03515625</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>0.986328125</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>0.99609375</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>1.005859375</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>0.9912109375</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>0.99609375</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>1.0009765625</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>0.99853515625</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1.0009765625</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>1.00341796875</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>0.999755859375</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>1.0009765625</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>1.002197265625</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>0.9991455078125</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>0.999755859375</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>1.0003662109375</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>0.99945068359375</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>0.999755859375</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>1.00006103515625</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="9" t="n">
+        <v>0.999908447265625</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1.00006103515625</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>1.00021362304688</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>0.999984741210938</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>1.00006103515625</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>1.00013732910156</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>0.999946594238281</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>0.999984741210938</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1.00002288818359</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>3.81966011250105</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>6.18033988749895</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>2.3606797749979</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>3.81966011250105</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>1.45898033750315</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>2.3606797749979</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>0.901699437494742</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>1.45898033750315</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>0.557280900008412</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>0.901699437494742</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>0.901699437494742</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>1.11456180001682</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>0.770143262530494</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>0.901699437494742</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>0.901699437494742</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>0.983005625052576</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>0.983005625052576</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>1.03325561245899</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>0.951949424901157</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0.983005625052576</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>0.983005625052576</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>1.00219941230757</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>1.00219941230757</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>1.01406182520399</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>0.994868037948998</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>1.00219941230757</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>1.00219941230757</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>1.00673045084542</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>0.999399076486846</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>1.00219941230757</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>0.997668373769724</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>0.999399076486846</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>0.999399076486846</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>1.00046870959045</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>1.00046870959045</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>1.00112977920397</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>1.00006014610037</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>1.00046870959045</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>0.999807639976931</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <v>1.00006014610037</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>1.00006014610037</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>1.00021620346702</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>0.999963697343581</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>1.00006014610037</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>0.999904088733715</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>0.999963697343581</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>0.999963697343581</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>1.0000005374905</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>